--- a/phase4/查询推荐实验.xlsx
+++ b/phase4/查询推荐实验.xlsx
@@ -193,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,6 +209,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,19 +244,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -515,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40:O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,19 +611,19 @@
         <f>(E1+E20)/2</f>
         <v>0.91117021276595722</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -612,19 +673,19 @@
         <f t="shared" si="1"/>
         <v>0.47424248703882299</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="5">
         <v>0.51957070699999996</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="5">
         <v>0.634469697</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="5">
         <v>0.67960858599999996</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="5">
         <v>0.74810606099999999</v>
       </c>
     </row>
@@ -956,19 +1017,19 @@
         <f>(E39+E58)/2</f>
         <v>0.54545454545454519</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="N39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="O39" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1018,19 +1079,19 @@
         <f t="shared" si="4"/>
         <v>0.12467338559163858</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="5">
         <v>0.807323232</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="5">
         <v>0.66540403999999997</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="5">
         <v>0.83085695699999995</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="5">
         <v>0.63075105899999995</v>
       </c>
     </row>
@@ -1344,5 +1405,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>